--- a/posesiones/1381289.xlsx
+++ b/posesiones/1381289.xlsx
@@ -1925,10 +1925,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2116,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2166,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R8">
         <v>43</v>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2316,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R12">
         <v>8</v>
@@ -2419,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R13">
         <v>17</v>
@@ -2469,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2519,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R15">
         <v>17</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2622,7 +2622,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R17">
         <v>13</v>
@@ -2675,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2725,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R19">
         <v>8</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2825,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R21">
         <v>5</v>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2925,7 +2925,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R23">
         <v>18</v>
@@ -2978,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3028,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R25">
         <v>7</v>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3128,7 +3128,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R27">
         <v>21</v>
@@ -3181,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3231,7 +3231,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R29">
         <v>21</v>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3375,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3472,7 +3472,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R34">
         <v>25</v>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3572,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3619,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3713,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3810,7 +3810,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R41">
         <v>9</v>
@@ -3857,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3907,7 +3907,7 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R43">
         <v>9</v>
@@ -3960,7 +3960,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R44">
         <v>25</v>
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4060,7 +4060,7 @@
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R46">
         <v>13</v>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4160,7 +4160,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R48">
         <v>8</v>
@@ -4210,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4260,7 +4260,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R50">
         <v>16</v>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4360,7 +4360,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R52">
         <v>13</v>
@@ -4410,7 +4410,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4457,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4507,7 +4507,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R55">
         <v>11</v>
@@ -4560,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4610,7 +4610,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R57">
         <v>7</v>
@@ -4660,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4713,7 +4713,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R59">
         <v>11</v>
@@ -4763,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4813,7 +4813,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R61">
         <v>20</v>
@@ -4863,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4913,7 +4913,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R63">
         <v>7</v>
@@ -4963,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -5013,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R65">
         <v>23</v>
@@ -5063,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5157,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5207,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R69">
         <v>23</v>
@@ -5257,7 +5257,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5304,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5354,7 +5354,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R72">
         <v>0</v>
@@ -5407,7 +5407,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R73">
         <v>15</v>
@@ -5460,7 +5460,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5510,7 +5510,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R75">
         <v>10</v>
@@ -5560,7 +5560,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5607,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5654,7 +5654,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5698,7 +5698,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5745,7 +5745,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5792,7 +5792,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5842,7 +5842,7 @@
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R82">
         <v>0</v>
@@ -5895,7 +5895,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R83">
         <v>15</v>
@@ -5948,7 +5948,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R84">
         <v>15</v>
@@ -6001,7 +6001,7 @@
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R85">
         <v>14</v>
@@ -6054,7 +6054,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R86">
         <v>20</v>
@@ -6107,7 +6107,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R87">
         <v>25</v>
@@ -6157,7 +6157,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6207,7 +6207,7 @@
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R89">
         <v>11</v>
@@ -6260,7 +6260,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6310,7 +6310,7 @@
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R91">
         <v>7</v>
@@ -6363,7 +6363,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R92">
         <v>7</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6460,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6510,7 +6510,7 @@
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R95">
         <v>12</v>
@@ -6563,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6613,7 +6613,7 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R97">
         <v>22</v>
@@ -6666,7 +6666,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6716,7 +6716,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R99">
         <v>10</v>
@@ -6769,7 +6769,7 @@
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R100">
         <v>14</v>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6872,7 +6872,7 @@
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R102">
         <v>4</v>
@@ -6916,10 +6916,10 @@
         <v>1</v>
       </c>
       <c r="P103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q103">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6966,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -7013,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -7054,10 +7054,10 @@
         <v>1</v>
       </c>
       <c r="P106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q106">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7104,7 +7104,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7154,7 +7154,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7204,7 +7204,7 @@
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R109">
         <v>16</v>
@@ -7254,7 +7254,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7304,7 +7304,7 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R111">
         <v>5</v>
@@ -7354,7 +7354,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7404,7 +7404,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R113">
         <v>18</v>
@@ -7454,7 +7454,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7504,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7554,7 +7554,7 @@
         <v>1</v>
       </c>
       <c r="Q116">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R116">
         <v>12</v>
@@ -7604,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7698,7 +7698,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7792,7 +7792,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7839,7 +7839,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7886,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7933,7 +7933,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7980,7 +7980,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -8027,7 +8027,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8077,7 +8077,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R127">
         <v>13</v>
@@ -8130,7 +8130,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8180,7 +8180,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R129">
         <v>22</v>
@@ -8233,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8283,7 +8283,7 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R131">
         <v>15</v>
@@ -8333,7 +8333,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8383,7 +8383,7 @@
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R133">
         <v>18</v>
@@ -8433,7 +8433,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8483,7 +8483,7 @@
         <v>1</v>
       </c>
       <c r="Q135">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R135">
         <v>20</v>
@@ -8536,7 +8536,7 @@
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R136">
         <v>11</v>
@@ -8589,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8639,7 +8639,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R138">
         <v>14</v>
@@ -8692,7 +8692,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8742,7 +8742,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R140">
         <v>10</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8839,7 +8839,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8889,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R143">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>1</v>
       </c>
       <c r="Q144">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R144">
         <v>13</v>
@@ -8995,7 +8995,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R145">
         <v>17</v>
@@ -9045,7 +9045,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9092,7 +9092,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9139,7 +9139,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9189,7 +9189,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R149">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>1</v>
       </c>
       <c r="Q150">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R150">
         <v>11</v>
@@ -9292,7 +9292,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9342,7 +9342,7 @@
         <v>1</v>
       </c>
       <c r="Q152">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R152">
         <v>6</v>
@@ -9392,7 +9392,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9436,7 +9436,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9483,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9530,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9577,7 +9577,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9624,7 +9624,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9674,7 +9674,7 @@
         <v>1</v>
       </c>
       <c r="Q159">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R159">
         <v>15</v>
@@ -9724,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9774,7 +9774,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9821,7 +9821,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9868,7 +9868,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9918,7 +9918,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R164">
         <v>16</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -10021,7 +10021,7 @@
         <v>1</v>
       </c>
       <c r="Q166">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R166">
         <v>20</v>
@@ -10074,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10124,7 +10124,7 @@
         <v>1</v>
       </c>
       <c r="Q168">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R168">
         <v>4</v>
@@ -10174,7 +10174,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10221,7 +10221,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10268,7 +10268,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10315,7 +10315,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10362,7 +10362,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10409,7 +10409,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10456,7 +10456,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10506,7 +10506,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R176">
         <v>0</v>
@@ -10556,7 +10556,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10603,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10650,7 +10650,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10697,7 +10697,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10744,7 +10744,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10794,7 +10794,7 @@
         <v>1</v>
       </c>
       <c r="Q182">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R182">
         <v>20</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10894,7 +10894,7 @@
         <v>1</v>
       </c>
       <c r="Q184">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R184">
         <v>16</v>
@@ -10944,7 +10944,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10994,7 +10994,7 @@
         <v>1</v>
       </c>
       <c r="Q186">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R186">
         <v>16</v>
@@ -11044,7 +11044,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -11091,7 +11091,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11144,7 +11144,7 @@
         <v>1</v>
       </c>
       <c r="Q189">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R189">
         <v>10</v>
@@ -11194,7 +11194,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11241,7 +11241,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11288,7 +11288,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11338,7 +11338,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R193">
         <v>14</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11441,7 +11441,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R195">
         <v>4</v>
@@ -11491,7 +11491,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11541,7 +11541,7 @@
         <v>1</v>
       </c>
       <c r="Q197">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R197">
         <v>4</v>
@@ -11591,7 +11591,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11635,7 +11635,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11682,7 +11682,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11729,7 +11729,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11779,7 +11779,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R202">
         <v>9</v>
@@ -11832,7 +11832,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11882,7 +11882,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R204">
         <v>11</v>
@@ -11935,7 +11935,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11985,7 +11985,7 @@
         <v>1</v>
       </c>
       <c r="Q206">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R206">
         <v>9</v>
@@ -12038,7 +12038,7 @@
         <v>1</v>
       </c>
       <c r="Q207">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R207">
         <v>13</v>
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -12141,7 +12141,7 @@
         <v>1</v>
       </c>
       <c r="Q209">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R209">
         <v>15</v>
@@ -12191,7 +12191,7 @@
         <v>0</v>
       </c>
       <c r="Q210">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="211" spans="1:18">
@@ -12241,7 +12241,7 @@
         <v>1</v>
       </c>
       <c r="Q211">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R211">
         <v>12</v>
@@ -12291,7 +12291,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12341,7 +12341,7 @@
         <v>1</v>
       </c>
       <c r="Q213">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R213">
         <v>24</v>
@@ -12391,7 +12391,7 @@
         <v>0</v>
       </c>
       <c r="Q214">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="215" spans="1:18">
@@ -12438,7 +12438,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12485,7 +12485,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12532,7 +12532,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12582,7 +12582,7 @@
         <v>1</v>
       </c>
       <c r="Q218">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R218">
         <v>21</v>
@@ -12635,7 +12635,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="R219">
         <v>20</v>
@@ -12688,7 +12688,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12738,7 +12738,7 @@
         <v>1</v>
       </c>
       <c r="Q221">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="R221">
         <v>12</v>
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12838,7 +12838,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12885,7 +12885,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12932,7 +12932,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12979,7 +12979,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -13026,7 +13026,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -13073,7 +13073,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13120,7 +13120,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -13170,7 +13170,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R230">
         <v>10</v>
@@ -13220,7 +13220,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13270,7 +13270,7 @@
         <v>1</v>
       </c>
       <c r="Q232">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R232">
         <v>12</v>
@@ -13323,7 +13323,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13373,7 +13373,7 @@
         <v>1</v>
       </c>
       <c r="Q234">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="R234">
         <v>18</v>
@@ -13423,7 +13423,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13473,7 +13473,7 @@
         <v>1</v>
       </c>
       <c r="Q236">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="R236">
         <v>16</v>
@@ -13526,7 +13526,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13573,7 +13573,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13620,7 +13620,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13670,7 +13670,7 @@
         <v>1</v>
       </c>
       <c r="Q240">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="R240">
         <v>31</v>
@@ -13720,7 +13720,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13767,7 +13767,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13814,7 +13814,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13861,7 +13861,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13908,7 +13908,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13955,7 +13955,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -14002,7 +14002,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -14052,7 +14052,7 @@
         <v>1</v>
       </c>
       <c r="Q248">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="R248">
         <v>6</v>
@@ -14096,10 +14096,10 @@
         <v>1</v>
       </c>
       <c r="P249" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q249">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14146,7 +14146,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14193,7 +14193,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14240,7 +14240,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14287,7 +14287,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14328,10 +14328,10 @@
         <v>1</v>
       </c>
       <c r="P254" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q254">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14381,7 +14381,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R255">
         <v>13</v>
@@ -14431,7 +14431,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14478,7 +14478,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14525,7 +14525,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14575,7 +14575,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R259">
         <v>0</v>
@@ -14625,7 +14625,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14672,7 +14672,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14719,7 +14719,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14772,7 +14772,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R263">
         <v>20</v>
@@ -14822,7 +14822,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14869,7 +14869,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14916,7 +14916,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14963,7 +14963,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -15010,7 +15010,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -15057,7 +15057,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15107,7 +15107,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R270">
         <v>31</v>
@@ -15160,7 +15160,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R271">
         <v>14</v>
@@ -15213,7 +15213,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15263,7 +15263,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R273">
         <v>4</v>
@@ -15316,7 +15316,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R274">
         <v>17</v>
@@ -15366,7 +15366,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15416,7 +15416,7 @@
         <v>1</v>
       </c>
       <c r="Q276">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R276">
         <v>20</v>
@@ -15466,7 +15466,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15516,7 +15516,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R278">
         <v>8</v>
@@ -15566,7 +15566,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15616,7 +15616,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R280">
         <v>12</v>
@@ -15666,7 +15666,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15716,7 +15716,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R282">
         <v>7</v>
@@ -15769,7 +15769,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R283">
         <v>14</v>
@@ -15819,7 +15819,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15869,7 +15869,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R285">
         <v>5</v>
@@ -15919,7 +15919,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15966,7 +15966,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -16016,7 +16016,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R288">
         <v>25</v>
@@ -16069,7 +16069,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16119,7 +16119,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R290">
         <v>7</v>
@@ -16169,7 +16169,7 @@
         <v>0</v>
       </c>
       <c r="Q291">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -16216,7 +16216,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16263,7 +16263,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16313,7 +16313,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R294">
         <v>23</v>
@@ -16363,7 +16363,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16413,7 +16413,7 @@
         <v>1</v>
       </c>
       <c r="Q296">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R296">
         <v>20</v>
@@ -16463,7 +16463,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16510,7 +16510,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16557,7 +16557,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16604,7 +16604,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16651,7 +16651,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16698,7 +16698,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16748,7 +16748,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R303">
         <v>17</v>
@@ -16801,7 +16801,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16848,7 +16848,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16895,7 +16895,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16945,7 +16945,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R307">
         <v>10</v>
@@ -16998,7 +16998,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -17045,7 +17045,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -17092,7 +17092,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -17139,7 +17139,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -17189,7 +17189,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R312">
         <v>4</v>
@@ -17239,7 +17239,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17289,7 +17289,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17339,7 +17339,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R315">
         <v>14</v>
@@ -17389,7 +17389,7 @@
         <v>0</v>
       </c>
       <c r="Q316">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="317" spans="1:18">
@@ -17439,7 +17439,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R317">
         <v>6</v>
@@ -17492,7 +17492,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R318">
         <v>7</v>
@@ -17542,7 +17542,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17589,7 +17589,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17639,7 +17639,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17689,7 +17689,7 @@
         <v>1</v>
       </c>
       <c r="Q322">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R322">
         <v>10</v>
@@ -17736,7 +17736,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17783,7 +17783,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17830,7 +17830,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17880,7 +17880,7 @@
         <v>1</v>
       </c>
       <c r="Q326">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R326">
         <v>20</v>
@@ -17933,7 +17933,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R327">
         <v>19</v>
@@ -17983,7 +17983,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -18033,7 +18033,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R329">
         <v>14</v>
@@ -18086,7 +18086,7 @@
         <v>0</v>
       </c>
       <c r="Q330">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="331" spans="1:18">
@@ -18133,7 +18133,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -18186,7 +18186,7 @@
         <v>1</v>
       </c>
       <c r="Q332">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R332">
         <v>8</v>
@@ -18236,7 +18236,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18286,7 +18286,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R334">
         <v>10</v>
@@ -18336,7 +18336,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18386,7 +18386,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18436,7 +18436,7 @@
         <v>1</v>
       </c>
       <c r="Q337">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R337">
         <v>13</v>
@@ -18486,7 +18486,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18536,7 +18536,7 @@
         <v>1</v>
       </c>
       <c r="Q339">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R339">
         <v>11</v>
@@ -18586,7 +18586,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18633,7 +18633,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18683,7 +18683,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18730,7 +18730,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18777,7 +18777,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18824,7 +18824,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18871,7 +18871,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18918,7 +18918,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18965,7 +18965,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -19012,7 +19012,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -19062,7 +19062,7 @@
         <v>1</v>
       </c>
       <c r="Q350">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R350">
         <v>39</v>
@@ -19115,7 +19115,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R351">
         <v>0</v>
@@ -19165,7 +19165,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19215,7 +19215,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="R353">
         <v>17</v>
@@ -19265,7 +19265,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19312,7 +19312,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19359,7 +19359,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19409,7 +19409,7 @@
         <v>1</v>
       </c>
       <c r="Q357">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R357">
         <v>11</v>
@@ -19462,7 +19462,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19509,7 +19509,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19559,7 +19559,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19606,7 +19606,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19653,7 +19653,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19700,7 +19700,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19750,7 +19750,7 @@
         <v>1</v>
       </c>
       <c r="Q364">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="R364">
         <v>18</v>
@@ -19803,7 +19803,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19853,7 +19853,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R366">
         <v>12</v>
@@ -19906,7 +19906,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19956,7 +19956,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="R368">
         <v>4</v>
@@ -20006,7 +20006,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -20056,7 +20056,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="R370">
         <v>21</v>
@@ -20109,7 +20109,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20156,7 +20156,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20203,7 +20203,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20250,7 +20250,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20297,7 +20297,7 @@
         <v>0</v>
       </c>
       <c r="Q375">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="376" spans="1:18">
@@ -20344,7 +20344,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20394,7 +20394,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="R377">
         <v>5</v>
@@ -20444,7 +20444,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20491,7 +20491,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20538,7 +20538,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20585,7 +20585,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20635,7 +20635,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20685,7 +20685,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="R383">
         <v>23</v>
@@ -20738,7 +20738,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20785,7 +20785,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20835,7 +20835,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20882,7 +20882,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20932,7 +20932,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20982,7 +20982,7 @@
         <v>1</v>
       </c>
       <c r="Q389">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="R389">
         <v>28</v>
@@ -21035,7 +21035,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="R390">
         <v>16</v>
@@ -21088,7 +21088,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21138,7 +21138,7 @@
         <v>1</v>
       </c>
       <c r="Q392">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="R392">
         <v>0</v>
@@ -21182,10 +21182,10 @@
         <v>1</v>
       </c>
       <c r="P393" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q393">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21232,7 +21232,7 @@
         <v>0</v>
       </c>
       <c r="Q394">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="395" spans="1:18">
@@ -21279,7 +21279,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21326,7 +21326,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21373,7 +21373,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21414,10 +21414,10 @@
         <v>1</v>
       </c>
       <c r="P398" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q398">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21467,7 +21467,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R399">
         <v>7</v>
@@ -21520,7 +21520,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21570,7 +21570,7 @@
         <v>1</v>
       </c>
       <c r="Q401">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R401">
         <v>14</v>
@@ -21620,7 +21620,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21667,7 +21667,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21717,7 +21717,7 @@
         <v>1</v>
       </c>
       <c r="Q404">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R404">
         <v>18</v>
@@ -21767,7 +21767,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21820,7 +21820,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R406">
         <v>18</v>
@@ -21870,7 +21870,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21920,7 +21920,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R408">
         <v>16</v>
@@ -21970,7 +21970,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -22017,7 +22017,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -22064,7 +22064,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22111,7 +22111,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22161,7 +22161,7 @@
         <v>1</v>
       </c>
       <c r="Q413">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R413">
         <v>6</v>
@@ -22214,7 +22214,7 @@
         <v>0</v>
       </c>
       <c r="Q414">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="415" spans="1:18">
@@ -22264,7 +22264,7 @@
         <v>1</v>
       </c>
       <c r="Q415">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R415">
         <v>20</v>
@@ -22314,7 +22314,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22364,7 +22364,7 @@
         <v>1</v>
       </c>
       <c r="Q417">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R417">
         <v>5</v>
@@ -22414,7 +22414,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22461,7 +22461,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22508,7 +22508,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22552,7 +22552,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22602,7 +22602,7 @@
         <v>1</v>
       </c>
       <c r="Q422">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R422">
         <v>25</v>
@@ -22655,7 +22655,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22702,7 +22702,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22749,7 +22749,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22796,7 +22796,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22843,7 +22843,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22893,7 +22893,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22940,7 +22940,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22987,7 +22987,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -23034,7 +23034,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23081,7 +23081,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23125,7 +23125,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23175,7 +23175,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R434">
         <v>38</v>
@@ -23225,7 +23225,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23275,7 +23275,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R436">
         <v>0</v>
@@ -23325,7 +23325,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23372,7 +23372,7 @@
         <v>0</v>
       </c>
       <c r="Q438">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="439" spans="1:18">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23516,7 +23516,7 @@
         <v>1</v>
       </c>
       <c r="Q441">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R441">
         <v>16</v>
@@ -23569,7 +23569,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23616,7 +23616,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23666,7 +23666,7 @@
         <v>1</v>
       </c>
       <c r="Q444">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R444">
         <v>11</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23766,7 +23766,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23813,7 +23813,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23860,7 +23860,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23957,7 +23957,7 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R450">
         <v>7</v>
@@ -24010,7 +24010,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R451">
         <v>14</v>
@@ -24063,7 +24063,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -24113,7 +24113,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R453">
         <v>16</v>
@@ -24166,7 +24166,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24216,7 +24216,7 @@
         <v>1</v>
       </c>
       <c r="Q455">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R455">
         <v>5</v>
@@ -24266,7 +24266,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24313,7 +24313,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24363,7 +24363,7 @@
         <v>1</v>
       </c>
       <c r="Q458">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R458">
         <v>15</v>
@@ -24416,7 +24416,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24466,7 +24466,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R460">
         <v>11</v>
@@ -24516,7 +24516,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24566,7 +24566,7 @@
         <v>1</v>
       </c>
       <c r="Q462">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R462">
         <v>13</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="Q464">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="465" spans="1:18">
@@ -24710,7 +24710,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24760,7 +24760,7 @@
         <v>1</v>
       </c>
       <c r="Q466">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R466">
         <v>12</v>
@@ -24813,7 +24813,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24863,7 +24863,7 @@
         <v>1</v>
       </c>
       <c r="Q468">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R468">
         <v>8</v>
@@ -24916,7 +24916,7 @@
         <v>1</v>
       </c>
       <c r="Q469">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R469">
         <v>9</v>
@@ -24966,7 +24966,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -25016,7 +25016,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R471">
         <v>13</v>
@@ -25069,7 +25069,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R472">
         <v>16</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25260,7 +25260,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25307,7 +25307,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25401,7 +25401,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25448,7 +25448,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25495,7 +25495,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25542,7 +25542,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25589,7 +25589,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25686,7 +25686,7 @@
         <v>1</v>
       </c>
       <c r="Q485">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R485">
         <v>14</v>
@@ -25736,7 +25736,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25786,7 +25786,7 @@
         <v>1</v>
       </c>
       <c r="Q487">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R487">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>1</v>
       </c>
       <c r="Q488">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R488">
         <v>19</v>
@@ -25889,7 +25889,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25936,7 +25936,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25986,7 +25986,7 @@
         <v>1</v>
       </c>
       <c r="Q491">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R491">
         <v>0</v>
@@ -26036,7 +26036,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -26136,7 +26136,7 @@
         <v>1</v>
       </c>
       <c r="Q494">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="R494">
         <v>21</v>
@@ -26189,7 +26189,7 @@
         <v>1</v>
       </c>
       <c r="Q495">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="R495">
         <v>20</v>
@@ -26239,7 +26239,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26289,7 +26289,7 @@
         <v>1</v>
       </c>
       <c r="Q497">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="R497">
         <v>8</v>
@@ -26342,7 +26342,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26392,7 +26392,7 @@
         <v>1</v>
       </c>
       <c r="Q499">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="R499">
         <v>24</v>
@@ -26445,7 +26445,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26495,7 +26495,7 @@
         <v>1</v>
       </c>
       <c r="Q501">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="R501">
         <v>11</v>
@@ -26548,7 +26548,7 @@
         <v>0</v>
       </c>
       <c r="Q502">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="503" spans="1:18">
@@ -26595,7 +26595,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26642,7 +26642,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26689,7 +26689,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26736,7 +26736,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26783,7 +26783,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26830,7 +26830,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26877,7 +26877,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26924,7 +26924,7 @@
         <v>0</v>
       </c>
       <c r="Q510">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -26971,7 +26971,7 @@
         <v>0</v>
       </c>
       <c r="Q511">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="Q512">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="513" spans="1:18">
@@ -27065,7 +27065,7 @@
         <v>0</v>
       </c>
       <c r="Q513">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="514" spans="1:18">
@@ -27115,7 +27115,7 @@
         <v>1</v>
       </c>
       <c r="Q514">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="R514">
         <v>20</v>
@@ -27168,7 +27168,7 @@
         <v>1</v>
       </c>
       <c r="Q515">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="R515">
         <v>8</v>
@@ -27221,7 +27221,7 @@
         <v>1</v>
       </c>
       <c r="Q516">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="R516">
         <v>13</v>
@@ -27271,7 +27271,7 @@
         <v>0</v>
       </c>
       <c r="Q517">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="518" spans="1:18">
@@ -27321,7 +27321,7 @@
         <v>1</v>
       </c>
       <c r="Q518">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="R518">
         <v>12</v>
@@ -27371,7 +27371,7 @@
         <v>0</v>
       </c>
       <c r="Q519">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="520" spans="1:18">
@@ -27421,7 +27421,7 @@
         <v>1</v>
       </c>
       <c r="Q520">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="R520">
         <v>20</v>
@@ -27471,7 +27471,7 @@
         <v>0</v>
       </c>
       <c r="Q521">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="522" spans="1:18">
@@ -27518,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="Q522">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="523" spans="1:18">
@@ -27568,7 +27568,7 @@
         <v>0</v>
       </c>
       <c r="Q523">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="524" spans="1:18">
@@ -27618,7 +27618,7 @@
         <v>1</v>
       </c>
       <c r="Q524">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="R524">
         <v>22</v>
@@ -27671,7 +27671,7 @@
         <v>0</v>
       </c>
       <c r="Q525">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="526" spans="1:18">
@@ -27721,7 +27721,7 @@
         <v>1</v>
       </c>
       <c r="Q526">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="R526">
         <v>11</v>
@@ -27771,7 +27771,7 @@
         <v>0</v>
       </c>
       <c r="Q527">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="528" spans="1:18">
@@ -27821,7 +27821,7 @@
         <v>1</v>
       </c>
       <c r="Q528">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="R528">
         <v>18</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="Q529">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="530" spans="1:18">
@@ -27921,7 +27921,7 @@
         <v>1</v>
       </c>
       <c r="Q530">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="R530">
         <v>12</v>
@@ -27974,7 +27974,7 @@
         <v>1</v>
       </c>
       <c r="Q531">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="R531">
         <v>1</v>
@@ -28030,7 +28030,7 @@
         <v>1</v>
       </c>
       <c r="Q532">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="R532">
         <v>3</v>
@@ -28074,10 +28074,10 @@
         <v>1</v>
       </c>
       <c r="P533" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q533">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="534" spans="1:18">
@@ -28118,7 +28118,7 @@
         <v>0</v>
       </c>
       <c r="Q534">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
